--- a/new_project/database/troubleshooting_equipament.xlsx
+++ b/new_project/database/troubleshooting_equipament.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\Chatbot\src\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\Sistema_CRUD\new_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86943FF-F51C-4E92-ADEC-C0B14564C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106BF8B-24D3-450F-B108-D5887B49233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pt" sheetId="1" r:id="rId1"/>
@@ -3262,9 +3262,6 @@
     <t>problem</t>
   </si>
   <si>
-    <t>equipament</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -3356,6 +3353,9 @@
   </si>
   <si>
     <t>rolamento ruidoso (continuação)</t>
+  </si>
+  <si>
+    <t>equipment</t>
   </si>
 </sst>
 </file>
@@ -3757,7 +3757,7 @@
   <dimension ref="A1:H537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,16 +3768,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1071</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1074</v>
+        <v>1105</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1073</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -3815,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
@@ -3842,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -3869,7 +3869,7 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
@@ -3896,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -3923,7 +3923,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -3950,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,10 +3974,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4001,10 +4001,10 @@
         <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,13 +4025,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>1090</v>
-      </c>
       <c r="H10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4079,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4106,13 +4106,13 @@
         <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4136,10 +4136,10 @@
         <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,13 +4160,13 @@
         <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4187,13 +4187,13 @@
         <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4214,13 +4214,13 @@
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4241,13 +4241,13 @@
         <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,13 +4268,13 @@
         <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4301,7 +4301,7 @@
         <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,13 +4322,13 @@
         <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4349,13 +4349,13 @@
         <v>24</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,7 +4436,7 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4463,7 +4463,7 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4490,7 +4490,7 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>36</v>
@@ -4517,7 +4517,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>38</v>
@@ -4544,7 +4544,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>39</v>
@@ -4571,7 +4571,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4589,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>40</v>
@@ -4598,7 +4598,7 @@
         <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
@@ -4625,7 +4625,7 @@
         <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4643,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>44</v>
@@ -4652,7 +4652,7 @@
         <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>36</v>
@@ -4679,7 +4679,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>38</v>
@@ -4706,7 +4706,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>39</v>
@@ -4733,7 +4733,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>40</v>
@@ -4760,7 +4760,7 @@
         <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4778,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>42</v>
@@ -4787,7 +4787,7 @@
         <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>44</v>
@@ -4814,7 +4814,7 @@
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>46</v>
@@ -4841,7 +4841,7 @@
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>46</v>
@@ -4868,7 +4868,7 @@
         <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4895,7 +4895,7 @@
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,7 +4922,7 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>50</v>
       </c>
       <c r="H45" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5003,7 +5003,7 @@
         <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5030,7 +5030,7 @@
         <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
         <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5111,7 +5111,7 @@
         <v>62</v>
       </c>
       <c r="H50" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5138,7 +5138,7 @@
         <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
         <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
         <v>69</v>
       </c>
       <c r="H53" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5273,7 +5273,7 @@
         <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
         <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5354,7 +5354,7 @@
         <v>81</v>
       </c>
       <c r="H59" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5408,7 +5408,7 @@
         <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5435,7 +5435,7 @@
         <v>86</v>
       </c>
       <c r="H62" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
         <v>88</v>
       </c>
       <c r="H63" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
         <v>91</v>
       </c>
       <c r="H64" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>91</v>
       </c>
       <c r="H65" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
         <v>94</v>
       </c>
       <c r="H66" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
         <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
         <v>98</v>
       </c>
       <c r="H68" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>100</v>
       </c>
       <c r="H69" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>102</v>
       </c>
       <c r="H70" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
         <v>104</v>
       </c>
       <c r="H71" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>78</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>105</v>
@@ -5705,7 +5705,7 @@
         <v>106</v>
       </c>
       <c r="H72" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5723,16 +5723,16 @@
         <v>78</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>107</v>
       </c>
       <c r="H73" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5750,7 +5750,7 @@
         <v>78</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>108</v>
@@ -5759,7 +5759,7 @@
         <v>109</v>
       </c>
       <c r="H74" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
         <v>78</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>110</v>
@@ -5786,7 +5786,7 @@
         <v>111</v>
       </c>
       <c r="H75" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5804,7 +5804,7 @@
         <v>78</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>112</v>
@@ -5813,7 +5813,7 @@
         <v>113</v>
       </c>
       <c r="H76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>78</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>114</v>
@@ -5840,7 +5840,7 @@
         <v>115</v>
       </c>
       <c r="H77" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
         <v>78</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>116</v>
@@ -5867,7 +5867,7 @@
         <v>117</v>
       </c>
       <c r="H78" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>118</v>
@@ -5894,7 +5894,7 @@
         <v>117</v>
       </c>
       <c r="H79" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>78</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>119</v>
@@ -5921,7 +5921,7 @@
         <v>120</v>
       </c>
       <c r="H80" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5939,7 +5939,7 @@
         <v>78</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>97</v>
@@ -5948,7 +5948,7 @@
         <v>121</v>
       </c>
       <c r="H81" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5966,7 +5966,7 @@
         <v>78</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>99</v>
@@ -5975,7 +5975,7 @@
         <v>121</v>
       </c>
       <c r="H82" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5993,7 +5993,7 @@
         <v>78</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>122</v>
@@ -6002,7 +6002,7 @@
         <v>123</v>
       </c>
       <c r="H83" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6029,7 +6029,7 @@
         <v>126</v>
       </c>
       <c r="H84" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6083,7 +6083,7 @@
         <v>129</v>
       </c>
       <c r="H86" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -6110,7 +6110,7 @@
         <v>131</v>
       </c>
       <c r="H87" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6137,7 +6137,7 @@
         <v>134</v>
       </c>
       <c r="H88" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>136</v>
       </c>
       <c r="H89" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
         <v>138</v>
       </c>
       <c r="H90" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6218,7 +6218,7 @@
         <v>141</v>
       </c>
       <c r="H91" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
         <v>143</v>
       </c>
       <c r="H92" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>143</v>
       </c>
       <c r="H93" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>147</v>
       </c>
       <c r="H94" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
         <v>149</v>
       </c>
       <c r="H95" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6353,7 +6353,7 @@
         <v>151</v>
       </c>
       <c r="H96" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
         <v>153</v>
       </c>
       <c r="H97" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6407,7 +6407,7 @@
         <v>154</v>
       </c>
       <c r="H98" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
         <v>153</v>
       </c>
       <c r="H99" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6461,7 +6461,7 @@
         <v>154</v>
       </c>
       <c r="H100" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6488,7 +6488,7 @@
         <v>158</v>
       </c>
       <c r="H101" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
         <v>161</v>
       </c>
       <c r="H102" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>163</v>
       </c>
       <c r="H103" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6569,7 +6569,7 @@
         <v>165</v>
       </c>
       <c r="H104" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>169</v>
       </c>
       <c r="H105" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>171</v>
       </c>
       <c r="H106" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6650,7 +6650,7 @@
         <v>173</v>
       </c>
       <c r="H107" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
         <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>177</v>
       </c>
       <c r="H109" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6731,7 +6731,7 @@
         <v>180</v>
       </c>
       <c r="H110" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>182</v>
       </c>
       <c r="H111" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6785,7 +6785,7 @@
         <v>185</v>
       </c>
       <c r="H112" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6812,7 +6812,7 @@
         <v>185</v>
       </c>
       <c r="H113" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
         <v>188</v>
       </c>
       <c r="H114" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
         <v>191</v>
       </c>
       <c r="H115" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6893,7 +6893,7 @@
         <v>191</v>
       </c>
       <c r="H116" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6920,7 +6920,7 @@
         <v>191</v>
       </c>
       <c r="H117" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
         <v>195</v>
       </c>
       <c r="H118" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
         <v>197</v>
       </c>
       <c r="H119" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -7001,7 +7001,7 @@
         <v>199</v>
       </c>
       <c r="H120" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -7028,7 +7028,7 @@
         <v>202</v>
       </c>
       <c r="H121" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>204</v>
       </c>
       <c r="H122" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7082,7 +7082,7 @@
         <v>205</v>
       </c>
       <c r="H123" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>207</v>
       </c>
       <c r="H124" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>209</v>
       </c>
       <c r="H125" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7163,7 +7163,7 @@
         <v>212</v>
       </c>
       <c r="H126" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7190,7 +7190,7 @@
         <v>214</v>
       </c>
       <c r="H127" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7217,7 +7217,7 @@
         <v>216</v>
       </c>
       <c r="H128" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7244,7 +7244,7 @@
         <v>216</v>
       </c>
       <c r="H129" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7271,7 +7271,7 @@
         <v>220</v>
       </c>
       <c r="H130" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7298,7 +7298,7 @@
         <v>222</v>
       </c>
       <c r="H131" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7325,7 +7325,7 @@
         <v>225</v>
       </c>
       <c r="H132" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,7 @@
         <v>227</v>
       </c>
       <c r="H133" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7379,7 +7379,7 @@
         <v>229</v>
       </c>
       <c r="H134" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
         <v>231</v>
       </c>
       <c r="H135" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7433,7 +7433,7 @@
         <v>234</v>
       </c>
       <c r="H136" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7460,7 +7460,7 @@
         <v>234</v>
       </c>
       <c r="H137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7487,7 +7487,7 @@
         <v>237</v>
       </c>
       <c r="H138" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7514,7 +7514,7 @@
         <v>239</v>
       </c>
       <c r="H139" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
         <v>242</v>
       </c>
       <c r="H140" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7568,7 +7568,7 @@
         <v>245</v>
       </c>
       <c r="H141" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7595,7 +7595,7 @@
         <v>247</v>
       </c>
       <c r="H142" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,7 +7622,7 @@
         <v>249</v>
       </c>
       <c r="H143" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
         <v>252</v>
       </c>
       <c r="H144" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7676,7 +7676,7 @@
         <v>255</v>
       </c>
       <c r="H145" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7703,7 +7703,7 @@
         <v>257</v>
       </c>
       <c r="H146" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7730,7 +7730,7 @@
         <v>260</v>
       </c>
       <c r="H147" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7757,7 +7757,7 @@
         <v>263</v>
       </c>
       <c r="H148" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7784,7 +7784,7 @@
         <v>265</v>
       </c>
       <c r="H149" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7811,7 +7811,7 @@
         <v>268</v>
       </c>
       <c r="H150" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7838,7 +7838,7 @@
         <v>270</v>
       </c>
       <c r="H151" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
         <v>273</v>
       </c>
       <c r="H152" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
         <v>274</v>
       </c>
       <c r="H153" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7919,7 +7919,7 @@
         <v>277</v>
       </c>
       <c r="H154" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7946,7 +7946,7 @@
         <v>279</v>
       </c>
       <c r="H155" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7973,7 +7973,7 @@
         <v>281</v>
       </c>
       <c r="H156" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -8000,7 +8000,7 @@
         <v>284</v>
       </c>
       <c r="H157" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -8027,7 +8027,7 @@
         <v>286</v>
       </c>
       <c r="H158" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
         <v>288</v>
       </c>
       <c r="H159" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -8081,7 +8081,7 @@
         <v>291</v>
       </c>
       <c r="H160" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -8108,7 +8108,7 @@
         <v>292</v>
       </c>
       <c r="H161" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>294</v>
       </c>
       <c r="H162" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -8162,7 +8162,7 @@
         <v>294</v>
       </c>
       <c r="H163" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -8189,7 +8189,7 @@
         <v>297</v>
       </c>
       <c r="H164" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -8216,7 +8216,7 @@
         <v>299</v>
       </c>
       <c r="H165" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -8243,7 +8243,7 @@
         <v>301</v>
       </c>
       <c r="H166" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8270,7 +8270,7 @@
         <v>305</v>
       </c>
       <c r="H167" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,7 +8297,7 @@
         <v>307</v>
       </c>
       <c r="H168" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8324,7 +8324,7 @@
         <v>309</v>
       </c>
       <c r="H169" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8351,7 +8351,7 @@
         <v>311</v>
       </c>
       <c r="H170" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8378,7 +8378,7 @@
         <v>313</v>
       </c>
       <c r="H171" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8405,7 +8405,7 @@
         <v>315</v>
       </c>
       <c r="H172" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>318</v>
       </c>
       <c r="H173" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8459,7 +8459,7 @@
         <v>320</v>
       </c>
       <c r="H174" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
         <v>322</v>
       </c>
       <c r="H175" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8513,7 +8513,7 @@
         <v>324</v>
       </c>
       <c r="H176" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
         <v>326</v>
       </c>
       <c r="H177" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8567,7 +8567,7 @@
         <v>328</v>
       </c>
       <c r="H178" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8594,7 +8594,7 @@
         <v>331</v>
       </c>
       <c r="H179" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
         <v>332</v>
       </c>
       <c r="H180" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8648,7 +8648,7 @@
         <v>334</v>
       </c>
       <c r="H181" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8675,7 +8675,7 @@
         <v>336</v>
       </c>
       <c r="H182" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8702,7 +8702,7 @@
         <v>339</v>
       </c>
       <c r="H183" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8729,7 +8729,7 @@
         <v>341</v>
       </c>
       <c r="H184" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8756,7 +8756,7 @@
         <v>343</v>
       </c>
       <c r="H185" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8783,7 +8783,7 @@
         <v>345</v>
       </c>
       <c r="H186" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8810,7 +8810,7 @@
         <v>347</v>
       </c>
       <c r="H187" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
         <v>348</v>
       </c>
       <c r="H188" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8864,7 +8864,7 @@
         <v>350</v>
       </c>
       <c r="H189" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8891,7 +8891,7 @@
         <v>352</v>
       </c>
       <c r="H190" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8918,7 +8918,7 @@
         <v>354</v>
       </c>
       <c r="H191" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8945,7 +8945,7 @@
         <v>356</v>
       </c>
       <c r="H192" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8972,7 +8972,7 @@
         <v>358</v>
       </c>
       <c r="H193" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
         <v>360</v>
       </c>
       <c r="H194" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -9026,7 +9026,7 @@
         <v>362</v>
       </c>
       <c r="H195" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>364</v>
       </c>
       <c r="H196" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>366</v>
       </c>
       <c r="H197" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -9107,7 +9107,7 @@
         <v>369</v>
       </c>
       <c r="H198" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -9134,7 +9134,7 @@
         <v>372</v>
       </c>
       <c r="H199" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -9161,7 +9161,7 @@
         <v>374</v>
       </c>
       <c r="H200" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -9188,7 +9188,7 @@
         <v>376</v>
       </c>
       <c r="H201" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -9213,7 +9213,7 @@
         <v>378</v>
       </c>
       <c r="H202" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
         <v>379</v>
       </c>
       <c r="H203" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
         <v>381</v>
       </c>
       <c r="H204" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -9294,7 +9294,7 @@
         <v>383</v>
       </c>
       <c r="H205" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -9321,7 +9321,7 @@
         <v>386</v>
       </c>
       <c r="H206" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -9348,7 +9348,7 @@
         <v>388</v>
       </c>
       <c r="H207" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -9375,7 +9375,7 @@
         <v>390</v>
       </c>
       <c r="H208" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9402,7 +9402,7 @@
         <v>392</v>
       </c>
       <c r="H209" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -9429,7 +9429,7 @@
         <v>394</v>
       </c>
       <c r="H210" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9456,7 +9456,7 @@
         <v>396</v>
       </c>
       <c r="H211" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9483,7 +9483,7 @@
         <v>399</v>
       </c>
       <c r="H212" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9510,7 +9510,7 @@
         <v>401</v>
       </c>
       <c r="H213" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9537,7 +9537,7 @@
         <v>404</v>
       </c>
       <c r="H214" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9564,7 +9564,7 @@
         <v>406</v>
       </c>
       <c r="H215" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9591,7 +9591,7 @@
         <v>409</v>
       </c>
       <c r="H216" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -9618,7 +9618,7 @@
         <v>411</v>
       </c>
       <c r="H217" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9645,7 +9645,7 @@
         <v>413</v>
       </c>
       <c r="H218" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9672,7 +9672,7 @@
         <v>417</v>
       </c>
       <c r="H219" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9699,7 +9699,7 @@
         <v>419</v>
       </c>
       <c r="H220" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9726,7 +9726,7 @@
         <v>421</v>
       </c>
       <c r="H221" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
         <v>423</v>
       </c>
       <c r="H222" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -9780,7 +9780,7 @@
         <v>425</v>
       </c>
       <c r="H223" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9807,7 +9807,7 @@
         <v>428</v>
       </c>
       <c r="H224" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9834,7 +9834,7 @@
         <v>430</v>
       </c>
       <c r="H225" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9861,7 +9861,7 @@
         <v>425</v>
       </c>
       <c r="H226" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9888,7 +9888,7 @@
         <v>432</v>
       </c>
       <c r="H227" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9915,7 +9915,7 @@
         <v>434</v>
       </c>
       <c r="H228" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9942,7 +9942,7 @@
         <v>436</v>
       </c>
       <c r="H229" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9969,7 +9969,7 @@
         <v>438</v>
       </c>
       <c r="H230" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9996,7 +9996,7 @@
         <v>441</v>
       </c>
       <c r="H231" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -10023,7 +10023,7 @@
         <v>445</v>
       </c>
       <c r="H232" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -10050,7 +10050,7 @@
         <v>447</v>
       </c>
       <c r="H233" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>449</v>
       </c>
       <c r="H234" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
         <v>452</v>
       </c>
       <c r="H235" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -10131,7 +10131,7 @@
         <v>454</v>
       </c>
       <c r="H236" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
         <v>457</v>
       </c>
       <c r="H237" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -10185,7 +10185,7 @@
         <v>460</v>
       </c>
       <c r="H238" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>463</v>
       </c>
       <c r="H239" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -10239,7 +10239,7 @@
         <v>463</v>
       </c>
       <c r="H240" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -10266,7 +10266,7 @@
         <v>467</v>
       </c>
       <c r="H241" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>469</v>
       </c>
       <c r="H242" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -10320,7 +10320,7 @@
         <v>471</v>
       </c>
       <c r="H243" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>473</v>
       </c>
       <c r="H244" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -10374,7 +10374,7 @@
         <v>476</v>
       </c>
       <c r="H245" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
         <v>477</v>
       </c>
       <c r="H246" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -10428,7 +10428,7 @@
         <v>479</v>
       </c>
       <c r="H247" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -10455,7 +10455,7 @@
         <v>481</v>
       </c>
       <c r="H248" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>484</v>
       </c>
       <c r="H249" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -10509,7 +10509,7 @@
         <v>486</v>
       </c>
       <c r="H250" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>488</v>
       </c>
       <c r="H251" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -10563,7 +10563,7 @@
         <v>6</v>
       </c>
       <c r="H252" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>25</v>
       </c>
       <c r="H253" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -10617,7 +10617,7 @@
         <v>25</v>
       </c>
       <c r="H254" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -10644,7 +10644,7 @@
         <v>494</v>
       </c>
       <c r="H255" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -10671,7 +10671,7 @@
         <v>497</v>
       </c>
       <c r="H256" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -10698,7 +10698,7 @@
         <v>499</v>
       </c>
       <c r="H257" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -10725,7 +10725,7 @@
         <v>501</v>
       </c>
       <c r="H258" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>503</v>
       </c>
       <c r="H259" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -10779,7 +10779,7 @@
         <v>505</v>
       </c>
       <c r="H260" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -10806,7 +10806,7 @@
         <v>508</v>
       </c>
       <c r="H261" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -10833,7 +10833,7 @@
         <v>503</v>
       </c>
       <c r="H262" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -10860,7 +10860,7 @@
         <v>511</v>
       </c>
       <c r="H263" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -10887,7 +10887,7 @@
         <v>508</v>
       </c>
       <c r="H264" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -10914,7 +10914,7 @@
         <v>514</v>
       </c>
       <c r="H265" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -10941,7 +10941,7 @@
         <v>517</v>
       </c>
       <c r="H266" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>519</v>
       </c>
       <c r="H267" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>520</v>
       </c>
       <c r="H268" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -11022,7 +11022,7 @@
         <v>521</v>
       </c>
       <c r="H269" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -11049,7 +11049,7 @@
         <v>523</v>
       </c>
       <c r="H270" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -11076,7 +11076,7 @@
         <v>525</v>
       </c>
       <c r="H271" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -11103,7 +11103,7 @@
         <v>528</v>
       </c>
       <c r="H272" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
         <v>531</v>
       </c>
       <c r="H273" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -11157,7 +11157,7 @@
         <v>531</v>
       </c>
       <c r="H274" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -11184,7 +11184,7 @@
         <v>535</v>
       </c>
       <c r="H275" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
         <v>537</v>
       </c>
       <c r="H276" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -11238,7 +11238,7 @@
         <v>539</v>
       </c>
       <c r="H277" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -11265,7 +11265,7 @@
         <v>542</v>
       </c>
       <c r="H278" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -11292,7 +11292,7 @@
         <v>544</v>
       </c>
       <c r="H279" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -11319,7 +11319,7 @@
         <v>547</v>
       </c>
       <c r="H280" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -11346,7 +11346,7 @@
         <v>549</v>
       </c>
       <c r="H281" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -11373,7 +11373,7 @@
         <v>551</v>
       </c>
       <c r="H282" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -11400,7 +11400,7 @@
         <v>554</v>
       </c>
       <c r="H283" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -11427,7 +11427,7 @@
         <v>556</v>
       </c>
       <c r="H284" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -11454,7 +11454,7 @@
         <v>556</v>
       </c>
       <c r="H285" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -11481,7 +11481,7 @@
         <v>559</v>
       </c>
       <c r="H286" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -11508,7 +11508,7 @@
         <v>559</v>
       </c>
       <c r="H287" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -11535,7 +11535,7 @@
         <v>517</v>
       </c>
       <c r="H288" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -11562,7 +11562,7 @@
         <v>564</v>
       </c>
       <c r="H289" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -11589,7 +11589,7 @@
         <v>566</v>
       </c>
       <c r="H290" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -11616,7 +11616,7 @@
         <v>411</v>
       </c>
       <c r="H291" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -11643,7 +11643,7 @@
         <v>570</v>
       </c>
       <c r="H292" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -11670,7 +11670,7 @@
         <v>573</v>
       </c>
       <c r="H293" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -11691,13 +11691,13 @@
         <v>574</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H294" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -11718,13 +11718,13 @@
         <v>574</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H295" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -11745,13 +11745,13 @@
         <v>574</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H296" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -11772,13 +11772,13 @@
         <v>574</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H297" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -11799,13 +11799,13 @@
         <v>574</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H298" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -11826,13 +11826,13 @@
         <v>574</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H299" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -11853,13 +11853,13 @@
         <v>574</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H300" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -11886,7 +11886,7 @@
         <v>577</v>
       </c>
       <c r="H301" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -11913,7 +11913,7 @@
         <v>577</v>
       </c>
       <c r="H302" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -11940,7 +11940,7 @@
         <v>583</v>
       </c>
       <c r="H303" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -11967,7 +11967,7 @@
         <v>585</v>
       </c>
       <c r="H304" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -11994,7 +11994,7 @@
         <v>587</v>
       </c>
       <c r="H305" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -12021,7 +12021,7 @@
         <v>590</v>
       </c>
       <c r="H306" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -12048,7 +12048,7 @@
         <v>592</v>
       </c>
       <c r="H307" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -12075,7 +12075,7 @@
         <v>594</v>
       </c>
       <c r="H308" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -12102,7 +12102,7 @@
         <v>596</v>
       </c>
       <c r="H309" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -12129,7 +12129,7 @@
         <v>598</v>
       </c>
       <c r="H310" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -12156,7 +12156,7 @@
         <v>601</v>
       </c>
       <c r="H311" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -12183,7 +12183,7 @@
         <v>603</v>
       </c>
       <c r="H312" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -12210,7 +12210,7 @@
         <v>605</v>
       </c>
       <c r="H313" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -12237,7 +12237,7 @@
         <v>607</v>
       </c>
       <c r="H314" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -12264,7 +12264,7 @@
         <v>609</v>
       </c>
       <c r="H315" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -12291,7 +12291,7 @@
         <v>612</v>
       </c>
       <c r="H316" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -12318,7 +12318,7 @@
         <v>614</v>
       </c>
       <c r="H317" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -12343,7 +12343,7 @@
         <v>616</v>
       </c>
       <c r="H318" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
         <v>617</v>
       </c>
       <c r="H319" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -12395,7 +12395,7 @@
         <v>619</v>
       </c>
       <c r="H320" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -12422,7 +12422,7 @@
         <v>621</v>
       </c>
       <c r="H321" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -12449,7 +12449,7 @@
         <v>623</v>
       </c>
       <c r="H322" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>625</v>
       </c>
       <c r="H323" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -12503,7 +12503,7 @@
         <v>627</v>
       </c>
       <c r="H324" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -12530,7 +12530,7 @@
         <v>630</v>
       </c>
       <c r="H325" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -12557,7 +12557,7 @@
         <v>619</v>
       </c>
       <c r="H326" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -12584,7 +12584,7 @@
         <v>633</v>
       </c>
       <c r="H327" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
@@ -12611,7 +12611,7 @@
         <v>634</v>
       </c>
       <c r="H328" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -12638,7 +12638,7 @@
         <v>636</v>
       </c>
       <c r="H329" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
         <v>638</v>
       </c>
       <c r="H330" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -12692,7 +12692,7 @@
         <v>640</v>
       </c>
       <c r="H331" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
         <v>644</v>
       </c>
       <c r="H332" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -12746,7 +12746,7 @@
         <v>646</v>
       </c>
       <c r="H333" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -12773,7 +12773,7 @@
         <v>649</v>
       </c>
       <c r="H334" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -12800,7 +12800,7 @@
         <v>651</v>
       </c>
       <c r="H335" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -12827,7 +12827,7 @@
         <v>653</v>
       </c>
       <c r="H336" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -12854,7 +12854,7 @@
         <v>655</v>
       </c>
       <c r="H337" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>657</v>
       </c>
       <c r="H338" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -12908,7 +12908,7 @@
         <v>655</v>
       </c>
       <c r="H339" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -12935,7 +12935,7 @@
         <v>653</v>
       </c>
       <c r="H340" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -12962,7 +12962,7 @@
         <v>661</v>
       </c>
       <c r="H341" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
@@ -12989,7 +12989,7 @@
         <v>663</v>
       </c>
       <c r="H342" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -13016,7 +13016,7 @@
         <v>666</v>
       </c>
       <c r="H343" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>668</v>
       </c>
       <c r="H344" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -13070,7 +13070,7 @@
         <v>670</v>
       </c>
       <c r="H345" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>672</v>
       </c>
       <c r="H346" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
@@ -13124,7 +13124,7 @@
         <v>675</v>
       </c>
       <c r="H347" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -13151,7 +13151,7 @@
         <v>411</v>
       </c>
       <c r="H348" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -13178,7 +13178,7 @@
         <v>649</v>
       </c>
       <c r="H349" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -13205,7 +13205,7 @@
         <v>679</v>
       </c>
       <c r="H350" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -13232,7 +13232,7 @@
         <v>681</v>
       </c>
       <c r="H351" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -13259,7 +13259,7 @@
         <v>683</v>
       </c>
       <c r="H352" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -13286,7 +13286,7 @@
         <v>672</v>
       </c>
       <c r="H353" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -13313,7 +13313,7 @@
         <v>686</v>
       </c>
       <c r="H354" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -13340,7 +13340,7 @@
         <v>672</v>
       </c>
       <c r="H355" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -13367,7 +13367,7 @@
         <v>690</v>
       </c>
       <c r="H356" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -13394,7 +13394,7 @@
         <v>672</v>
       </c>
       <c r="H357" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -13421,7 +13421,7 @@
         <v>693</v>
       </c>
       <c r="H358" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -13448,7 +13448,7 @@
         <v>695</v>
       </c>
       <c r="H359" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -13475,7 +13475,7 @@
         <v>657</v>
       </c>
       <c r="H360" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -13502,7 +13502,7 @@
         <v>698</v>
       </c>
       <c r="H361" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -13529,7 +13529,7 @@
         <v>700</v>
       </c>
       <c r="H362" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -13556,7 +13556,7 @@
         <v>653</v>
       </c>
       <c r="H363" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -13583,7 +13583,7 @@
         <v>700</v>
       </c>
       <c r="H364" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -13610,7 +13610,7 @@
         <v>706</v>
       </c>
       <c r="H365" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -13637,7 +13637,7 @@
         <v>708</v>
       </c>
       <c r="H366" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -13664,7 +13664,7 @@
         <v>710</v>
       </c>
       <c r="H367" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -13691,7 +13691,7 @@
         <v>713</v>
       </c>
       <c r="H368" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -13718,7 +13718,7 @@
         <v>715</v>
       </c>
       <c r="H369" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -13745,7 +13745,7 @@
         <v>718</v>
       </c>
       <c r="H370" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -13772,7 +13772,7 @@
         <v>720</v>
       </c>
       <c r="H371" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -13799,7 +13799,7 @@
         <v>722</v>
       </c>
       <c r="H372" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -13826,7 +13826,7 @@
         <v>411</v>
       </c>
       <c r="H373" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -13853,7 +13853,7 @@
         <v>672</v>
       </c>
       <c r="H374" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -13880,7 +13880,7 @@
         <v>729</v>
       </c>
       <c r="H375" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -13907,7 +13907,7 @@
         <v>731</v>
       </c>
       <c r="H376" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -13934,7 +13934,7 @@
         <v>733</v>
       </c>
       <c r="H377" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>735</v>
       </c>
       <c r="H378" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -13988,7 +13988,7 @@
         <v>738</v>
       </c>
       <c r="H379" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -14015,7 +14015,7 @@
         <v>740</v>
       </c>
       <c r="H380" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -14042,7 +14042,7 @@
         <v>742</v>
       </c>
       <c r="H381" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -14069,7 +14069,7 @@
         <v>744</v>
       </c>
       <c r="H382" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -14096,7 +14096,7 @@
         <v>746</v>
       </c>
       <c r="H383" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -14123,7 +14123,7 @@
         <v>425</v>
       </c>
       <c r="H384" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -14150,7 +14150,7 @@
         <v>749</v>
       </c>
       <c r="H385" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -14177,7 +14177,7 @@
         <v>742</v>
       </c>
       <c r="H386" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -14204,7 +14204,7 @@
         <v>751</v>
       </c>
       <c r="H387" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -14231,7 +14231,7 @@
         <v>754</v>
       </c>
       <c r="H388" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -14258,7 +14258,7 @@
         <v>425</v>
       </c>
       <c r="H389" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -14285,7 +14285,7 @@
         <v>756</v>
       </c>
       <c r="H390" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -14312,7 +14312,7 @@
         <v>758</v>
       </c>
       <c r="H391" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -14339,7 +14339,7 @@
         <v>761</v>
       </c>
       <c r="H392" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -14366,7 +14366,7 @@
         <v>764</v>
       </c>
       <c r="H393" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>767</v>
       </c>
       <c r="H394" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -14420,7 +14420,7 @@
         <v>769</v>
       </c>
       <c r="H395" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -14447,7 +14447,7 @@
         <v>771</v>
       </c>
       <c r="H396" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -14474,7 +14474,7 @@
         <v>774</v>
       </c>
       <c r="H397" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -14501,7 +14501,7 @@
         <v>776</v>
       </c>
       <c r="H398" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -14528,7 +14528,7 @@
         <v>778</v>
       </c>
       <c r="H399" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -14555,7 +14555,7 @@
         <v>425</v>
       </c>
       <c r="H400" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -14582,7 +14582,7 @@
         <v>782</v>
       </c>
       <c r="H401" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -14609,7 +14609,7 @@
         <v>784</v>
       </c>
       <c r="H402" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -14636,7 +14636,7 @@
         <v>787</v>
       </c>
       <c r="H403" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -14663,7 +14663,7 @@
         <v>790</v>
       </c>
       <c r="H404" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -14690,7 +14690,7 @@
         <v>425</v>
       </c>
       <c r="H405" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -14717,7 +14717,7 @@
         <v>793</v>
       </c>
       <c r="H406" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -14744,7 +14744,7 @@
         <v>795</v>
       </c>
       <c r="H407" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -14771,7 +14771,7 @@
         <v>798</v>
       </c>
       <c r="H408" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -14798,7 +14798,7 @@
         <v>800</v>
       </c>
       <c r="H409" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -14825,7 +14825,7 @@
         <v>802</v>
       </c>
       <c r="H410" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -14852,7 +14852,7 @@
         <v>804</v>
       </c>
       <c r="H411" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -14879,7 +14879,7 @@
         <v>806</v>
       </c>
       <c r="H412" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -14906,7 +14906,7 @@
         <v>808</v>
       </c>
       <c r="H413" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -14933,7 +14933,7 @@
         <v>810</v>
       </c>
       <c r="H414" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -14960,7 +14960,7 @@
         <v>813</v>
       </c>
       <c r="H415" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -14987,7 +14987,7 @@
         <v>815</v>
       </c>
       <c r="H416" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -15014,7 +15014,7 @@
         <v>817</v>
       </c>
       <c r="H417" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -15041,7 +15041,7 @@
         <v>819</v>
       </c>
       <c r="H418" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -15068,7 +15068,7 @@
         <v>821</v>
       </c>
       <c r="H419" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -15095,7 +15095,7 @@
         <v>120</v>
       </c>
       <c r="H420" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -15122,7 +15122,7 @@
         <v>824</v>
       </c>
       <c r="H421" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -15149,7 +15149,7 @@
         <v>824</v>
       </c>
       <c r="H422" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -15176,7 +15176,7 @@
         <v>827</v>
       </c>
       <c r="H423" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -15203,7 +15203,7 @@
         <v>829</v>
       </c>
       <c r="H424" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -15230,7 +15230,7 @@
         <v>832</v>
       </c>
       <c r="H425" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -15257,7 +15257,7 @@
         <v>834</v>
       </c>
       <c r="H426" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -15284,7 +15284,7 @@
         <v>836</v>
       </c>
       <c r="H427" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -15311,7 +15311,7 @@
         <v>838</v>
       </c>
       <c r="H428" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -15338,7 +15338,7 @@
         <v>841</v>
       </c>
       <c r="H429" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -15365,7 +15365,7 @@
         <v>843</v>
       </c>
       <c r="H430" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>845</v>
       </c>
       <c r="H431" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -15419,7 +15419,7 @@
         <v>848</v>
       </c>
       <c r="H432" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -15446,7 +15446,7 @@
         <v>851</v>
       </c>
       <c r="H433" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -15473,7 +15473,7 @@
         <v>853</v>
       </c>
       <c r="H434" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -15500,7 +15500,7 @@
         <v>855</v>
       </c>
       <c r="H435" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -15527,7 +15527,7 @@
         <v>857</v>
       </c>
       <c r="H436" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -15554,7 +15554,7 @@
         <v>858</v>
       </c>
       <c r="H437" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -15581,7 +15581,7 @@
         <v>859</v>
       </c>
       <c r="H438" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -15608,7 +15608,7 @@
         <v>862</v>
       </c>
       <c r="H439" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -15635,7 +15635,7 @@
         <v>864</v>
       </c>
       <c r="H440" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -15662,7 +15662,7 @@
         <v>866</v>
       </c>
       <c r="H441" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -15689,7 +15689,7 @@
         <v>869</v>
       </c>
       <c r="H442" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -15716,7 +15716,7 @@
         <v>871</v>
       </c>
       <c r="H443" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -15743,7 +15743,7 @@
         <v>874</v>
       </c>
       <c r="H444" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -15770,7 +15770,7 @@
         <v>876</v>
       </c>
       <c r="H445" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -15797,7 +15797,7 @@
         <v>878</v>
       </c>
       <c r="H446" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -15824,7 +15824,7 @@
         <v>880</v>
       </c>
       <c r="H447" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -15851,7 +15851,7 @@
         <v>882</v>
       </c>
       <c r="H448" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -15878,7 +15878,7 @@
         <v>885</v>
       </c>
       <c r="H449" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -15905,7 +15905,7 @@
         <v>887</v>
       </c>
       <c r="H450" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,7 @@
         <v>889</v>
       </c>
       <c r="H451" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -15959,7 +15959,7 @@
         <v>596</v>
       </c>
       <c r="H452" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -15986,7 +15986,7 @@
         <v>891</v>
       </c>
       <c r="H453" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -16013,7 +16013,7 @@
         <v>892</v>
       </c>
       <c r="H454" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -16040,7 +16040,7 @@
         <v>893</v>
       </c>
       <c r="H455" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="G456" s="3"/>
       <c r="H456" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -16092,7 +16092,7 @@
         <v>896</v>
       </c>
       <c r="H457" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -16119,7 +16119,7 @@
         <v>898</v>
       </c>
       <c r="H458" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -16146,7 +16146,7 @@
         <v>902</v>
       </c>
       <c r="H459" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -16173,7 +16173,7 @@
         <v>904</v>
       </c>
       <c r="H460" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -16200,7 +16200,7 @@
         <v>906</v>
       </c>
       <c r="H461" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -16227,7 +16227,7 @@
         <v>908</v>
       </c>
       <c r="H462" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -16254,7 +16254,7 @@
         <v>910</v>
       </c>
       <c r="H463" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -16281,7 +16281,7 @@
         <v>912</v>
       </c>
       <c r="H464" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -16308,7 +16308,7 @@
         <v>914</v>
       </c>
       <c r="H465" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -16335,7 +16335,7 @@
         <v>916</v>
       </c>
       <c r="H466" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -16362,7 +16362,7 @@
         <v>919</v>
       </c>
       <c r="H467" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -16389,7 +16389,7 @@
         <v>922</v>
       </c>
       <c r="H468" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -16416,7 +16416,7 @@
         <v>925</v>
       </c>
       <c r="H469" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -16443,7 +16443,7 @@
         <v>927</v>
       </c>
       <c r="H470" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -16470,7 +16470,7 @@
         <v>930</v>
       </c>
       <c r="H471" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -16497,7 +16497,7 @@
         <v>933</v>
       </c>
       <c r="H472" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -16524,7 +16524,7 @@
         <v>935</v>
       </c>
       <c r="H473" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -16551,7 +16551,7 @@
         <v>938</v>
       </c>
       <c r="H474" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -16578,7 +16578,7 @@
         <v>940</v>
       </c>
       <c r="H475" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -16605,7 +16605,7 @@
         <v>943</v>
       </c>
       <c r="H476" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
         <v>946</v>
       </c>
       <c r="H477" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -16659,7 +16659,7 @@
         <v>949</v>
       </c>
       <c r="H478" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -16686,7 +16686,7 @@
         <v>951</v>
       </c>
       <c r="H479" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -16713,7 +16713,7 @@
         <v>927</v>
       </c>
       <c r="H480" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -16740,7 +16740,7 @@
         <v>953</v>
       </c>
       <c r="H481" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -16767,7 +16767,7 @@
         <v>955</v>
       </c>
       <c r="H482" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -16794,7 +16794,7 @@
         <v>957</v>
       </c>
       <c r="H483" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -16821,7 +16821,7 @@
         <v>959</v>
       </c>
       <c r="H484" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -16848,7 +16848,7 @@
         <v>961</v>
       </c>
       <c r="H485" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -16875,7 +16875,7 @@
         <v>963</v>
       </c>
       <c r="H486" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -16902,7 +16902,7 @@
         <v>965</v>
       </c>
       <c r="H487" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -16929,7 +16929,7 @@
         <v>927</v>
       </c>
       <c r="H488" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -16956,7 +16956,7 @@
         <v>967</v>
       </c>
       <c r="H489" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -16983,7 +16983,7 @@
         <v>969</v>
       </c>
       <c r="H490" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -17010,7 +17010,7 @@
         <v>971</v>
       </c>
       <c r="H491" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -17037,7 +17037,7 @@
         <v>973</v>
       </c>
       <c r="H492" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -17064,7 +17064,7 @@
         <v>974</v>
       </c>
       <c r="H493" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -17091,7 +17091,7 @@
         <v>977</v>
       </c>
       <c r="H494" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -17118,7 +17118,7 @@
         <v>979</v>
       </c>
       <c r="H495" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -17145,7 +17145,7 @@
         <v>982</v>
       </c>
       <c r="H496" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -17172,7 +17172,7 @@
         <v>984</v>
       </c>
       <c r="H497" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -17199,7 +17199,7 @@
         <v>986</v>
       </c>
       <c r="H498" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -17226,7 +17226,7 @@
         <v>988</v>
       </c>
       <c r="H499" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -17253,7 +17253,7 @@
         <v>990</v>
       </c>
       <c r="H500" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -17280,7 +17280,7 @@
         <v>992</v>
       </c>
       <c r="H501" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -17307,7 +17307,7 @@
         <v>994</v>
       </c>
       <c r="H502" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -17334,7 +17334,7 @@
         <v>996</v>
       </c>
       <c r="H503" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -17361,7 +17361,7 @@
         <v>998</v>
       </c>
       <c r="H504" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -17388,7 +17388,7 @@
         <v>1001</v>
       </c>
       <c r="H505" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -17415,7 +17415,7 @@
         <v>1003</v>
       </c>
       <c r="H506" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -17442,7 +17442,7 @@
         <v>1005</v>
       </c>
       <c r="H507" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -17469,7 +17469,7 @@
         <v>1007</v>
       </c>
       <c r="H508" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -17496,7 +17496,7 @@
         <v>1010</v>
       </c>
       <c r="H509" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -17523,7 +17523,7 @@
         <v>998</v>
       </c>
       <c r="H510" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -17550,7 +17550,7 @@
         <v>1014</v>
       </c>
       <c r="H511" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -17577,7 +17577,7 @@
         <v>982</v>
       </c>
       <c r="H512" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -17604,7 +17604,7 @@
         <v>1003</v>
       </c>
       <c r="H513" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -17631,7 +17631,7 @@
         <v>1017</v>
       </c>
       <c r="H514" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -17658,7 +17658,7 @@
         <v>1021</v>
       </c>
       <c r="H515" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -17685,7 +17685,7 @@
         <v>1023</v>
       </c>
       <c r="H516" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -17712,7 +17712,7 @@
         <v>1026</v>
       </c>
       <c r="H517" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -17739,7 +17739,7 @@
         <v>1028</v>
       </c>
       <c r="H518" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -17766,7 +17766,7 @@
         <v>1029</v>
       </c>
       <c r="H519" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -17793,7 +17793,7 @@
         <v>1031</v>
       </c>
       <c r="H520" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -17820,7 +17820,7 @@
         <v>1034</v>
       </c>
       <c r="H521" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -17847,7 +17847,7 @@
         <v>1037</v>
       </c>
       <c r="H522" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -17874,7 +17874,7 @@
         <v>1039</v>
       </c>
       <c r="H523" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -17901,7 +17901,7 @@
         <v>1042</v>
       </c>
       <c r="H524" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -17928,7 +17928,7 @@
         <v>1045</v>
       </c>
       <c r="H525" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -17955,7 +17955,7 @@
         <v>1047</v>
       </c>
       <c r="H526" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -17982,7 +17982,7 @@
         <v>1050</v>
       </c>
       <c r="H527" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -18009,7 +18009,7 @@
         <v>1050</v>
       </c>
       <c r="H528" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -18036,7 +18036,7 @@
         <v>1050</v>
       </c>
       <c r="H529" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -18063,7 +18063,7 @@
         <v>1050</v>
       </c>
       <c r="H530" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -18090,7 +18090,7 @@
         <v>1050</v>
       </c>
       <c r="H531" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -18117,7 +18117,7 @@
         <v>1059</v>
       </c>
       <c r="H532" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -18144,7 +18144,7 @@
         <v>1062</v>
       </c>
       <c r="H533" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -18171,7 +18171,7 @@
         <v>1064</v>
       </c>
       <c r="H534" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
@@ -18198,7 +18198,7 @@
         <v>1066</v>
       </c>
       <c r="H535" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -18225,7 +18225,7 @@
         <v>1068</v>
       </c>
       <c r="H536" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -18252,7 +18252,7 @@
         <v>1070</v>
       </c>
       <c r="H537" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/new_project/database/troubleshooting_equipament.xlsx
+++ b/new_project/database/troubleshooting_equipament.xlsx
@@ -5,36 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\Sistema_CRUD\new_project\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\Sistema_CRUD\new_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106BF8B-24D3-450F-B108-D5887B49233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03945882-F878-413E-8702-C7023B4BFC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pt!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pt!$A$1:$G$537</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1107">
   <si>
     <t>action</t>
   </si>
@@ -3356,6 +3345,9 @@
   </si>
   <si>
     <t>equipment</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -3757,13 +3749,15 @@
   <dimension ref="A1:H537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G456" sqref="G456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9208,7 +9202,9 @@
       <c r="E202" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F202" s="3"/>
+      <c r="F202" s="3" t="s">
+        <v>1106</v>
+      </c>
       <c r="G202" s="3" t="s">
         <v>378</v>
       </c>
@@ -12338,7 +12334,9 @@
       <c r="E318" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F318" s="3"/>
+      <c r="F318" s="3" t="s">
+        <v>1106</v>
+      </c>
       <c r="G318" s="3" t="s">
         <v>616</v>
       </c>
@@ -12363,7 +12361,9 @@
       <c r="E319" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F319" s="3"/>
+      <c r="F319" s="3" t="s">
+        <v>1106</v>
+      </c>
       <c r="G319" s="3" t="s">
         <v>617</v>
       </c>
@@ -16063,7 +16063,9 @@
       <c r="F456" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="G456" s="3"/>
+      <c r="G456" s="3" t="s">
+        <v>1106</v>
+      </c>
       <c r="H456" t="s">
         <v>1082</v>
       </c>
@@ -18256,7 +18258,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G537" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>